--- a/genomes/HOT1A3/signalp_ROS_protease/protease_comparison_ncbi_luca.xlsx
+++ b/genomes/HOT1A3/signalp_ROS_protease/protease_comparison_ncbi_luca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oweisberg\Documents\GitHub\CC1A3\genomes\HOT1A3\signalp_ROS_protease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB775F47-AE80-41D2-9059-C80570FC382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEBA228-34C4-4876-B8D8-9C7C78945BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="196">
   <si>
     <t>locus_tag_ncbi</t>
   </si>
@@ -54,6 +54,12 @@
     <t>EC_number_from_kegg</t>
   </si>
   <si>
+    <t>is_signal_ncbi</t>
+  </si>
+  <si>
+    <t>is_signal_luca</t>
+  </si>
+  <si>
     <t>ACZ81_RS20270</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t>3.4.23.-</t>
   </si>
   <si>
+    <t>Not Signal</t>
+  </si>
+  <si>
     <t>ACZ81_RS00325</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
   </si>
   <si>
     <t>Neutral endopeptidase</t>
+  </si>
+  <si>
+    <t>Is Signal</t>
   </si>
   <si>
     <t>ACZ81_RS09250</t>
@@ -960,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -974,7 +986,7 @@
     <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,293 +1017,353 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1301,23 +1373,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,509 +1417,635 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15" t="s">
         <v>115</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F15" t="s">
         <v>116</v>
       </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
         <v>151</v>
       </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1860,11 +2055,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1876,7 +2069,7 @@
     <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,198 +2100,246 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
         <v>164</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>165</v>
       </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
         <v>174</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F6" t="s">
         <v>175</v>
       </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>176</v>
       </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
